--- a/biology/Botanique/Sporobolinae/Sporobolinae.xlsx
+++ b/biology/Botanique/Sporobolinae/Sporobolinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sporobolinae sont une sous-tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, à répartition quasi-cosmopolite, qui comprend 6 genres et environ 220 espèces acceptées. Ce sont des plantes herbacées, généralement vivaces, poussant en touffes, aux tiges généralement dressées et pouvant atteindre de 5 à 160 cm de haut, voire plus. Ce taxon se caractérise, entre autres, par ses fruits dont le péricarpe mucilagineux se sépare facilement de la graine à maturité, facilitant la dispersion de cette dernière.
-Le genre type de cette sous-tribu est Sporobolus R.Br.[2], qui est aussi le genre le plus important avec 184 espèces acceptées.
+Le genre type de cette sous-tribu est Sporobolus R.Br., qui est aussi le genre le plus important avec 184 espèces acceptées.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se caractérise par les caractères suivants : la plupart des espèces ont des épillets uniflores, des lemmes présentant une seule nervure (parfois 3 ou plus), les ligules constituées d'une membrane ciliée ou d'une rangée de poils, et des fruits présentant un péricarpe non adhérent (caryopses modifiés)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se caractérise par les caractères suivants : la plupart des espèces ont des épillets uniflores, des lemmes présentant une seule nervure (parfois 3 ou plus), les ligules constituées d'une membrane ciliée ou d'une rangée de poils, et des fruits présentant un péricarpe non adhérent (caryopses modifiés).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (17 juin 2019)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (17 juin 2019) :
 Calamovilfa (A.Gray) Hack. ex Scribn. &amp; Southw. : 5 espèces endémiques d'Amérique du Nord ;
 Crypsis Aiton : 10 espèces endémiques d'Afrique et d'Asie ;
 Psilolemma : 1 espèce endémique d'Afrique ;
